--- a/Assets/Data/Table/Convert/Skill_SkillGroup.xlsx
+++ b/Assets/Data/Table/Convert/Skill_SkillGroup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\ProjectS\Assets\Data\Table\Convert\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Storage\UnityProject\ProjectS\Assets\Data\Table\Convert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F45A916-9717-45C6-9625-8DCFD95A0429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5F2B42-606D-449A-BE8A-7598FAC86A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-46188" yWindow="-108" windowWidth="46296" windowHeight="25680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillGroup" sheetId="10" r:id="rId1"/>
@@ -83,22 +83,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Skill_Distance_Min</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill_Distance_Max</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Target_Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#스킬 시간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -170,10 +154,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SkillTag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Blink</t>
   </si>
   <si>
@@ -496,16 +476,6 @@
   </si>
   <si>
     <t>string[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enum.Skill.
-SkillType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enum.Target.
-TargetType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -674,6 +644,34 @@
   <si>
     <t>B</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tb.Target
+TargetFilter</t>
+  </si>
+  <si>
+    <t>TargetFilter_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_Tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillDistance_Min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillDistance_Max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Em.Skill.
+SkillType</t>
   </si>
 </sst>
 </file>
@@ -1435,98 +1433,98 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76D06FCE-E527-42D7-9C96-67875EC15CB5}">
   <dimension ref="A1:S67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="23.125" style="59" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.09765625" style="59" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="18.5" style="59" customWidth="1"/>
-    <col min="4" max="4" width="5.25" style="60" customWidth="1"/>
+    <col min="4" max="4" width="5.19921875" style="60" customWidth="1"/>
     <col min="5" max="5" width="6.5" style="60" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="6.375" style="60" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.625" style="59" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="6.3984375" style="60" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.59765625" style="59" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="6.5" style="59" customWidth="1"/>
-    <col min="11" max="11" width="9.375" style="59" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.875" style="59" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.875" style="59" customWidth="1"/>
+    <col min="11" max="11" width="9.3984375" style="59" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.8984375" style="59" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.8984375" style="59" customWidth="1"/>
     <col min="14" max="14" width="21" style="61" customWidth="1"/>
-    <col min="15" max="15" width="4.75" style="73" customWidth="1"/>
-    <col min="16" max="16" width="7.75" style="60" customWidth="1"/>
+    <col min="15" max="15" width="4.69921875" style="73" customWidth="1"/>
+    <col min="16" max="16" width="7.69921875" style="60" customWidth="1"/>
     <col min="18" max="16384" width="9" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="6" customFormat="1" ht="85.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="6" customFormat="1" ht="85.2" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="N1" s="76" t="s">
+        <v>147</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="P1" s="9" t="s">
         <v>5</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="76" t="s">
-        <v>154</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>9</v>
       </c>
       <c r="R1" s="11"/>
       <c r="S1" s="11"/>
     </row>
-    <row r="2" spans="1:19" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>2</v>
@@ -1541,16 +1539,16 @@
         <v>1</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="N2" s="77" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="O2" s="10" t="s">
         <v>1</v>
@@ -1561,16 +1559,16 @@
       <c r="R2" s="48"/>
       <c r="S2" s="48"/>
     </row>
-    <row r="3" spans="1:19" s="55" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" s="55" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A3" s="34" t="str">
         <f t="shared" ref="A3:A40" si="0">B3&amp;"_"&amp;C3</f>
         <v>Player_Crouch</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D3" s="35">
         <v>0</v>
@@ -1579,48 +1577,48 @@
         <v>1</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="G3" s="35"/>
       <c r="H3" s="34" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="I3" s="35" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J3" s="35" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K3" s="35" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M3" s="35" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N3" s="34" t="str">
         <f t="shared" ref="N3:N40" si="1">A3</f>
         <v>Player_Crouch</v>
       </c>
       <c r="O3" s="63" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="P3" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="55" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" s="55" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A4" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Player_CrouchRelease</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D4" s="35">
         <v>1</v>
@@ -1629,48 +1627,48 @@
         <v>1</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="G4" s="35"/>
       <c r="H4" s="34" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="I4" s="35" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J4" s="35" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K4" s="35" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L4" s="35" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M4" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>Player_CrouchRelease</v>
+      </c>
+      <c r="O4" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="51" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="A5" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Player_Jump</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="34" t="str">
-        <f t="shared" si="1"/>
-        <v>Player_CrouchRelease</v>
-      </c>
-      <c r="O4" s="63" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" s="51" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>Player_Jump</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>18</v>
-      </c>
       <c r="C5" s="18" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D5" s="19">
         <v>0</v>
@@ -1679,49 +1677,49 @@
         <v>1</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L5" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M5" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Player_Jump</v>
+      </c>
+      <c r="O5" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="P5" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="52" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="A6" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Player_DoubleJump</v>
+      </c>
+      <c r="B6" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>Player_Jump</v>
-      </c>
-      <c r="O5" s="64" t="s">
-        <v>11</v>
-      </c>
-      <c r="P5" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" s="52" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>Player_DoubleJump</v>
-      </c>
-      <c r="B6" s="20" t="s">
+      <c r="C6" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>22</v>
-      </c>
       <c r="D6" s="21">
         <v>1</v>
       </c>
@@ -1729,48 +1727,48 @@
         <v>1</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G6" s="21"/>
       <c r="H6" s="20" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K6" s="21" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L6" s="21" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M6" s="21" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N6" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Player_DoubleJump</v>
       </c>
       <c r="O6" s="65" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="P6" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="49" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" s="49" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A7" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Player_DiveBelow</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D7" s="13">
         <v>0</v>
@@ -1779,48 +1777,48 @@
         <v>1</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="12" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N7" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Player_DiveBelow</v>
       </c>
       <c r="O7" s="66" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="P7" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="49" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" s="49" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A8" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Player_DiveSide</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D8" s="13">
         <v>0</v>
@@ -1829,48 +1827,48 @@
         <v>1</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="12" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Player_DiveSide</v>
+      </c>
+      <c r="O8" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="P8" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="50" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="A9" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Player_DiveRelease</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Player_DiveSide</v>
-      </c>
-      <c r="O8" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="P8" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" s="50" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Player_DiveRelease</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="C9" s="16" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D9" s="17">
         <v>1</v>
@@ -1879,48 +1877,48 @@
         <v>1</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="16" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L9" s="17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M9" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Player_DiveRelease</v>
+      </c>
+      <c r="O9" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="P9" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="50" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="A10" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Player_DiveRelease_Crouch</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>Player_DiveRelease</v>
-      </c>
-      <c r="O9" s="67" t="s">
-        <v>11</v>
-      </c>
-      <c r="P9" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" s="50" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Player_DiveRelease_Crouch</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="C10" s="16" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D10" s="17">
         <v>1</v>
@@ -1929,48 +1927,48 @@
         <v>1</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="16" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L10" s="17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Player_DiveRelease_Crouch</v>
+      </c>
+      <c r="O10" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="P10" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="53" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="A11" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>Player_Hang</v>
+      </c>
+      <c r="B11" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="N10" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>Player_DiveRelease_Crouch</v>
-      </c>
-      <c r="O10" s="67" t="s">
-        <v>11</v>
-      </c>
-      <c r="P10" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" s="53" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>Player_Hang</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>18</v>
-      </c>
       <c r="C11" s="22" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D11" s="23">
         <v>0</v>
@@ -1979,48 +1977,48 @@
         <v>1</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="22" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J11" s="62" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K11" s="62" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="L11" s="62" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="M11" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>Player_Hang</v>
+      </c>
+      <c r="O11" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="P11" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="53" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="A12" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>Player_HangRelease</v>
+      </c>
+      <c r="B12" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="N11" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>Player_Hang</v>
-      </c>
-      <c r="O11" s="68" t="s">
-        <v>11</v>
-      </c>
-      <c r="P11" s="62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" s="53" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>Player_HangRelease</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>18</v>
-      </c>
       <c r="C12" s="22" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D12" s="23">
         <v>1</v>
@@ -2029,48 +2027,48 @@
         <v>1</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G12" s="23"/>
       <c r="H12" s="22" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J12" s="62" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K12" s="62" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="L12" s="62" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="M12" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="N12" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>Player_HangRelease</v>
+      </c>
+      <c r="O12" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="P12" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="54" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="A13" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>Player_Blink</v>
+      </c>
+      <c r="B13" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="N12" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>Player_HangRelease</v>
-      </c>
-      <c r="O12" s="68" t="s">
-        <v>11</v>
-      </c>
-      <c r="P12" s="62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" s="54" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>Player_Blink</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>18</v>
-      </c>
       <c r="C13" s="26" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D13" s="27">
         <v>0</v>
@@ -2079,48 +2077,48 @@
         <v>1</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G13" s="27"/>
       <c r="H13" s="26" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I13" s="27" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J13" s="30" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K13" s="30" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L13" s="30" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M13" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="N13" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>Player_Blink</v>
+      </c>
+      <c r="O13" s="69" t="s">
+        <v>151</v>
+      </c>
+      <c r="P13" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="54" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="A14" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>Player_BlinkCancel</v>
+      </c>
+      <c r="B14" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="N13" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v>Player_Blink</v>
-      </c>
-      <c r="O13" s="69" t="s">
-        <v>158</v>
-      </c>
-      <c r="P13" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" s="54" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>Player_BlinkCancel</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>18</v>
-      </c>
       <c r="C14" s="26" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D14" s="27">
         <v>1</v>
@@ -2129,48 +2127,48 @@
         <v>1</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="G14" s="27"/>
       <c r="H14" s="26" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="I14" s="27" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J14" s="30" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K14" s="30" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L14" s="30" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M14" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>Player_BlinkCancel</v>
+      </c>
+      <c r="O14" s="69" t="s">
+        <v>140</v>
+      </c>
+      <c r="P14" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" s="55" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="A15" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>Player_TimeSlow</v>
+      </c>
+      <c r="B15" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="N14" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v>Player_BlinkCancel</v>
-      </c>
-      <c r="O14" s="69" t="s">
-        <v>147</v>
-      </c>
-      <c r="P14" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" s="55" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>Player_TimeSlow</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>18</v>
-      </c>
       <c r="C15" s="31" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D15" s="32">
         <v>0</v>
@@ -2179,48 +2177,48 @@
         <v>1</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G15" s="32"/>
       <c r="H15" s="31" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="I15" s="32" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J15" s="32" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K15" s="32" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="L15" s="32" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M15" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="N15" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>Player_TimeSlow</v>
+      </c>
+      <c r="O15" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="P15" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="56" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="A16" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>Player_ClairvoyanceVision</v>
+      </c>
+      <c r="B16" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="N15" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>Player_TimeSlow</v>
-      </c>
-      <c r="O15" s="63" t="s">
-        <v>11</v>
-      </c>
-      <c r="P15" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" s="56" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="36" t="str">
-        <f t="shared" si="0"/>
-        <v>Player_ClairvoyanceVision</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>18</v>
-      </c>
       <c r="C16" s="36" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D16" s="37">
         <v>0</v>
@@ -2229,48 +2227,48 @@
         <v>1</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G16" s="37"/>
       <c r="H16" s="36" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I16" s="37" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J16" s="37" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K16" s="37" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L16" s="37" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="M16" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="N16" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>Player_ClairvoyanceVision</v>
+      </c>
+      <c r="O16" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="P16" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="53" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="A17" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>Player_TeleportFlagUp</v>
+      </c>
+      <c r="B17" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="N16" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v>Player_ClairvoyanceVision</v>
-      </c>
-      <c r="O16" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="P16" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" s="53" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>Player_TeleportFlagUp</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>18</v>
-      </c>
       <c r="C17" s="22" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D17" s="23">
         <v>0</v>
@@ -2279,48 +2277,48 @@
         <v>1</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G17" s="23"/>
       <c r="H17" s="22" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J17" s="23" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K17" s="23" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L17" s="23" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M17" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="N17" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>Player_TeleportFlagUp</v>
+      </c>
+      <c r="O17" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="P17" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="54" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="A18" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>Player_QuiteSteps</v>
+      </c>
+      <c r="B18" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="N17" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v>Player_TeleportFlagUp</v>
-      </c>
-      <c r="O17" s="68" t="s">
-        <v>11</v>
-      </c>
-      <c r="P17" s="62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" s="54" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>Player_QuiteSteps</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>18</v>
-      </c>
       <c r="C18" s="26" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D18" s="27">
         <v>0</v>
@@ -2329,48 +2327,48 @@
         <v>1</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G18" s="27"/>
       <c r="H18" s="26" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I18" s="27" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J18" s="27" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K18" s="27" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L18" s="27" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M18" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="N18" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Player_QuiteSteps</v>
+      </c>
+      <c r="O18" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="P18" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="49" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="A19" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Player_ShadowKill</v>
+      </c>
+      <c r="B19" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="N18" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v>Player_QuiteSteps</v>
-      </c>
-      <c r="O18" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="P18" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" s="49" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>Player_ShadowKill</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>18</v>
-      </c>
       <c r="C19" s="15" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D19" s="41">
         <v>0</v>
@@ -2379,48 +2377,48 @@
         <v>1</v>
       </c>
       <c r="F19" s="41" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G19" s="41"/>
       <c r="H19" s="15" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I19" s="41" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J19" s="41" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K19" s="41" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L19" s="41" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M19" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="N19" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Player_ShadowKill</v>
+      </c>
+      <c r="O19" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="P19" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="55" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="A20" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>Player_KnockDownStart</v>
+      </c>
+      <c r="B20" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="N19" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>Player_ShadowKill</v>
-      </c>
-      <c r="O19" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="P19" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" s="55" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>Player_KnockDownStart</v>
-      </c>
-      <c r="B20" s="31" t="s">
-        <v>18</v>
-      </c>
       <c r="C20" s="31" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D20" s="32">
         <v>99</v>
@@ -2429,48 +2427,48 @@
         <v>1</v>
       </c>
       <c r="F20" s="32" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G20" s="32"/>
       <c r="H20" s="31" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I20" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="J20" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="32" t="s">
-        <v>15</v>
-      </c>
       <c r="L20" s="32" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="M20" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="N20" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>Player_KnockDownStart</v>
+      </c>
+      <c r="O20" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="P20" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="55" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="A21" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>Player_KnockDownDown</v>
+      </c>
+      <c r="B21" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="N20" s="34" t="str">
-        <f t="shared" si="1"/>
-        <v>Player_KnockDownStart</v>
-      </c>
-      <c r="O20" s="63" t="s">
-        <v>11</v>
-      </c>
-      <c r="P20" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" s="55" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>Player_KnockDownDown</v>
-      </c>
-      <c r="B21" s="31" t="s">
-        <v>18</v>
-      </c>
       <c r="C21" s="31" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D21" s="32">
         <v>99</v>
@@ -2479,48 +2477,48 @@
         <v>1</v>
       </c>
       <c r="F21" s="32" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G21" s="32"/>
       <c r="H21" s="31" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I21" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="J21" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" s="32" t="s">
-        <v>15</v>
-      </c>
       <c r="L21" s="32" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="M21" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="N21" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>Player_KnockDownDown</v>
+      </c>
+      <c r="O21" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="P21" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="56" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="A22" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>Player_Stun</v>
+      </c>
+      <c r="B22" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="N21" s="34" t="str">
-        <f t="shared" si="1"/>
-        <v>Player_KnockDownDown</v>
-      </c>
-      <c r="O21" s="63" t="s">
-        <v>11</v>
-      </c>
-      <c r="P21" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" s="56" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>Player_Stun</v>
-      </c>
-      <c r="B22" s="39" t="s">
-        <v>18</v>
-      </c>
       <c r="C22" s="39" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D22" s="40">
         <v>98</v>
@@ -2529,48 +2527,48 @@
         <v>1</v>
       </c>
       <c r="F22" s="40" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G22" s="40"/>
       <c r="H22" s="39" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I22" s="40" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J22" s="40" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K22" s="40" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L22" s="40" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="M22" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="N22" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>Player_Stun</v>
+      </c>
+      <c r="O22" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="P22" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" s="53" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="A23" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>Player_HitReaction</v>
+      </c>
+      <c r="B23" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="N22" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>Player_Stun</v>
-      </c>
-      <c r="O22" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="P22" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" s="53" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>Player_HitReaction</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>18</v>
-      </c>
       <c r="C23" s="22" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D23" s="23">
         <v>97</v>
@@ -2579,48 +2577,48 @@
         <v>1</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G23" s="23"/>
       <c r="H23" s="22" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I23" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="J23" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="23" t="s">
+      <c r="L23" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="M23" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="N23" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>Player_HitReaction</v>
+      </c>
+      <c r="O23" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="P23" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" s="54" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="A24" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Player_Dead</v>
+      </c>
+      <c r="B24" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="L23" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="M23" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="N23" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>Player_HitReaction</v>
-      </c>
-      <c r="O23" s="68" t="s">
-        <v>11</v>
-      </c>
-      <c r="P23" s="62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" s="54" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>Player_Dead</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>19</v>
-      </c>
       <c r="C24" s="29" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D24" s="30">
         <v>999</v>
@@ -2629,48 +2627,48 @@
         <v>1</v>
       </c>
       <c r="F24" s="30" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G24" s="30"/>
       <c r="H24" s="29" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="I24" s="30" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="J24" s="30" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="K24" s="30" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="L24" s="30" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="M24" s="30" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="N24" s="29" t="str">
         <f t="shared" si="1"/>
         <v>Player_Dead</v>
       </c>
       <c r="O24" s="69" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="P24" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="57" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A25" s="42" t="str">
         <f t="shared" si="0"/>
         <v>Player_Rest</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D25" s="43">
         <v>0</v>
@@ -2679,48 +2677,48 @@
         <v>1</v>
       </c>
       <c r="F25" s="43" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G25" s="43"/>
       <c r="H25" s="42" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I25" s="43" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J25" s="43" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K25" s="43" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L25" s="43" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="M25" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="N25" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v>Player_Rest</v>
+      </c>
+      <c r="O25" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="P25" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="A26" s="42" t="str">
+        <f t="shared" si="0"/>
+        <v>Player_RestRelease</v>
+      </c>
+      <c r="B26" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="N25" s="44" t="str">
-        <f t="shared" si="1"/>
-        <v>Player_Rest</v>
-      </c>
-      <c r="O25" s="71" t="s">
-        <v>11</v>
-      </c>
-      <c r="P25" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" s="57" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="42" t="str">
-        <f t="shared" si="0"/>
-        <v>Player_RestRelease</v>
-      </c>
-      <c r="B26" s="42" t="s">
-        <v>18</v>
-      </c>
       <c r="C26" s="42" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D26" s="43">
         <v>1</v>
@@ -2729,48 +2727,48 @@
         <v>1</v>
       </c>
       <c r="F26" s="43" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G26" s="43"/>
       <c r="H26" s="42" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I26" s="43" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J26" s="43" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K26" s="43" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L26" s="43" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="M26" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="N26" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v>Player_RestRelease</v>
+      </c>
+      <c r="O26" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="P26" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" s="49" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="A27" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Player_OilShot</v>
+      </c>
+      <c r="B27" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="N26" s="44" t="str">
-        <f t="shared" si="1"/>
-        <v>Player_RestRelease</v>
-      </c>
-      <c r="O26" s="71" t="s">
-        <v>11</v>
-      </c>
-      <c r="P26" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" s="49" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>Player_OilShot</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>18</v>
-      </c>
       <c r="C27" s="15" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D27" s="41">
         <v>0</v>
@@ -2779,48 +2777,48 @@
         <v>1</v>
       </c>
       <c r="F27" s="41" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G27" s="41"/>
       <c r="H27" s="15" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I27" s="41" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J27" s="41" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K27" s="41" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L27" s="41" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="M27" s="41" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="N27" s="14" t="str">
         <f t="shared" si="1"/>
         <v>Player_OilShot</v>
       </c>
       <c r="O27" s="66" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="P27" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="49" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" s="49" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A28" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Player_NormalAttack_1</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D28" s="41">
         <v>0</v>
@@ -2829,26 +2827,26 @@
         <v>1</v>
       </c>
       <c r="F28" s="41" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G28" s="41"/>
       <c r="H28" s="15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I28" s="41" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J28" s="41" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K28" s="41" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L28" s="41" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="M28" s="41" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="N28" s="12" t="str">
         <f t="shared" si="1"/>
@@ -2861,16 +2859,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="49" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" s="49" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A29" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Player_NormalAttack_2</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D29" s="13">
         <v>0</v>
@@ -2879,26 +2877,26 @@
         <v>1</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G29" s="13"/>
       <c r="H29" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L29" s="13" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="M29" s="13" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="N29" s="12" t="str">
         <f t="shared" si="1"/>
@@ -2911,16 +2909,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="49" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" s="49" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A30" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Player_NormalAttack_3</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D30" s="13">
         <v>0</v>
@@ -2929,26 +2927,26 @@
         <v>1</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G30" s="13"/>
       <c r="H30" s="12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J30" s="13" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L30" s="13" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="M30" s="13" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="N30" s="12" t="str">
         <f t="shared" si="1"/>
@@ -2961,16 +2959,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="49" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" s="49" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A31" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Player_ChargeAttackReady</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D31" s="41">
         <v>0</v>
@@ -2979,26 +2977,26 @@
         <v>1</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G31" s="13"/>
       <c r="H31" s="15" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L31" s="13" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="M31" s="13" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N31" s="12" t="str">
         <f t="shared" si="1"/>
@@ -3011,16 +3009,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="49" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" s="49" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A32" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Player_ChargeAttack_1</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D32" s="41">
         <v>0</v>
@@ -3029,48 +3027,48 @@
         <v>1</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G32" s="13"/>
       <c r="H32" s="15" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="I32" s="41" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J32" s="41" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L32" s="13" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="M32" s="13" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="N32" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Player_ChargeAttack_1</v>
       </c>
       <c r="O32" s="66" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="P32" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="49" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" s="49" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A33" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Player_ChargeAttack_2</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D33" s="41">
         <v>0</v>
@@ -3079,48 +3077,48 @@
         <v>1</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G33" s="13"/>
       <c r="H33" s="15" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="I33" s="41" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J33" s="41" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K33" s="13" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L33" s="13" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="M33" s="13" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="N33" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Player_ChargeAttack_2</v>
       </c>
       <c r="O33" s="66" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="P33" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16" s="49" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" s="49" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A34" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Player_ChargeAttack_3</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D34" s="41">
         <v>0</v>
@@ -3129,48 +3127,48 @@
         <v>1</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G34" s="13"/>
       <c r="H34" s="15" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="I34" s="41" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J34" s="41" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K34" s="13" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L34" s="13" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="M34" s="13" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="N34" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Player_ChargeAttack_3</v>
       </c>
       <c r="O34" s="66" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="P34" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:16" s="58" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" s="58" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A35" s="45" t="str">
         <f t="shared" si="0"/>
         <v>Player_BackAssaultAttack</v>
       </c>
       <c r="B35" s="45" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C35" s="45" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D35" s="46">
         <v>0</v>
@@ -3179,11 +3177,11 @@
         <v>1</v>
       </c>
       <c r="F35" s="46" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G35" s="46"/>
       <c r="H35" s="45" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I35" s="46">
         <v>0</v>
@@ -3192,35 +3190,35 @@
         <v>1</v>
       </c>
       <c r="K35" s="46" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="L35" s="46" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="M35" s="46" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="N35" s="47" t="str">
         <f t="shared" si="1"/>
         <v>Player_BackAssaultAttack</v>
       </c>
       <c r="O35" s="72" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="P35" s="75">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:16" s="58" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" s="58" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A36" s="45" t="str">
         <f t="shared" si="0"/>
         <v>Player_HangAssaultAttack</v>
       </c>
       <c r="B36" s="45" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C36" s="45" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D36" s="46">
         <v>0</v>
@@ -3229,11 +3227,11 @@
         <v>1</v>
       </c>
       <c r="F36" s="46" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G36" s="46"/>
       <c r="H36" s="45" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I36" s="46">
         <v>0</v>
@@ -3242,35 +3240,35 @@
         <v>1</v>
       </c>
       <c r="K36" s="46" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="L36" s="46" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="M36" s="46" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="N36" s="47" t="str">
         <f t="shared" si="1"/>
         <v>Player_HangAssaultAttack</v>
       </c>
       <c r="O36" s="72" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="P36" s="75">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16" s="58" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" s="58" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A37" s="45" t="str">
         <f t="shared" si="0"/>
         <v>Player_DiveAssaultAttack</v>
       </c>
       <c r="B37" s="45" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C37" s="45" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D37" s="46">
         <v>0</v>
@@ -3279,11 +3277,11 @@
         <v>1</v>
       </c>
       <c r="F37" s="46" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G37" s="46"/>
       <c r="H37" s="45" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I37" s="46">
         <v>0</v>
@@ -3292,35 +3290,35 @@
         <v>1</v>
       </c>
       <c r="K37" s="46" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="L37" s="46" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="M37" s="46" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="N37" s="47" t="str">
         <f t="shared" si="1"/>
         <v>Player_DiveAssaultAttack</v>
       </c>
       <c r="O37" s="72" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="P37" s="75">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16" s="58" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" s="58" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A38" s="45" t="str">
         <f t="shared" si="0"/>
         <v>Player_AirAssaultAttack</v>
       </c>
       <c r="B38" s="45" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C38" s="45" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D38" s="46">
         <v>0</v>
@@ -3329,11 +3327,11 @@
         <v>1</v>
       </c>
       <c r="F38" s="46" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G38" s="46"/>
       <c r="H38" s="45" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I38" s="46">
         <v>0</v>
@@ -3342,35 +3340,35 @@
         <v>5</v>
       </c>
       <c r="K38" s="46" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="L38" s="46" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="M38" s="46" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="N38" s="47" t="str">
         <f t="shared" si="1"/>
         <v>Player_AirAssaultAttack</v>
       </c>
       <c r="O38" s="72" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="P38" s="75">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16" s="49" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" s="49" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A39" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Player_Guard</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D39" s="41">
         <v>0</v>
@@ -3379,48 +3377,48 @@
         <v>1</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G39" s="13"/>
       <c r="H39" s="15" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I39" s="41" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J39" s="41" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K39" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="L39" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="M39" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="L39" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="M39" s="41" t="s">
-        <v>85</v>
-      </c>
       <c r="N39" s="14" t="str">
         <f t="shared" si="1"/>
         <v>Player_Guard</v>
       </c>
       <c r="O39" s="66" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="P39" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16" s="49" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" s="49" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A40" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Player_GuardRelease</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D40" s="41">
         <v>1</v>
@@ -3429,85 +3427,85 @@
         <v>1</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G40" s="13"/>
       <c r="H40" s="15" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="I40" s="41" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J40" s="41" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K40" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="L40" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="M40" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="L40" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="M40" s="41" t="s">
-        <v>85</v>
-      </c>
       <c r="N40" s="14" t="str">
         <f t="shared" si="1"/>
         <v>Player_GuardRelease</v>
       </c>
       <c r="O40" s="66" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="P40" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.4">
       <c r="K42" s="60"/>
       <c r="L42" s="60"/>
       <c r="N42" s="59"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.4">
       <c r="K43" s="60"/>
       <c r="L43" s="60"/>
       <c r="N43" s="59"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.4">
       <c r="N44" s="59"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.4">
       <c r="N45" s="59"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.4">
       <c r="N46" s="59"/>
     </row>
-    <row r="58" spans="19:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="19:19" x14ac:dyDescent="0.4">
       <c r="S58" s="1"/>
     </row>
-    <row r="59" spans="19:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="19:19" x14ac:dyDescent="0.4">
       <c r="S59" s="1"/>
     </row>
-    <row r="60" spans="19:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="19:19" x14ac:dyDescent="0.4">
       <c r="S60" s="1"/>
     </row>
-    <row r="61" spans="19:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="19:19" x14ac:dyDescent="0.4">
       <c r="S61" s="1"/>
     </row>
-    <row r="62" spans="19:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="19:19" x14ac:dyDescent="0.4">
       <c r="S62" s="1"/>
     </row>
-    <row r="63" spans="19:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="19:19" x14ac:dyDescent="0.4">
       <c r="S63" s="1"/>
     </row>
-    <row r="64" spans="19:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="19:19" x14ac:dyDescent="0.4">
       <c r="S64" s="1"/>
     </row>
-    <row r="65" spans="19:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="19:19" x14ac:dyDescent="0.4">
       <c r="S65" s="1"/>
     </row>
-    <row r="66" spans="19:19" x14ac:dyDescent="0.3">
+    <row r="66" spans="19:19" x14ac:dyDescent="0.4">
       <c r="S66" s="1"/>
     </row>
-    <row r="67" spans="19:19" x14ac:dyDescent="0.3">
+    <row r="67" spans="19:19" x14ac:dyDescent="0.4">
       <c r="S67" s="1"/>
     </row>
   </sheetData>

--- a/Assets/Data/Table/Convert/Skill_SkillGroup.xlsx
+++ b/Assets/Data/Table/Convert/Skill_SkillGroup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Storage\UnityProject\ProjectS\Assets\Data\Table\Convert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5F2B42-606D-449A-BE8A-7598FAC86A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE94E90-7FAD-42DF-8995-C0D31E0F2680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-46188" yWindow="-108" windowWidth="46296" windowHeight="25680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillGroup" sheetId="10" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="158">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -256,10 +256,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>잠수 상태에서 암살</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공중에서 암살</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -421,9 +417,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OilShot</t>
-  </si>
-  <si>
     <t>NormalAttack</t>
   </si>
   <si>
@@ -467,14 +460,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SingleTarget</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MultipleTarget</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -609,9 +594,6 @@
   </si>
   <si>
     <t>HangAssaultAttack</t>
-  </si>
-  <si>
-    <t>DiveAssaultAttack</t>
   </si>
   <si>
     <t>AirAssaultAttack</t>
@@ -672,6 +654,18 @@
   <si>
     <t>Em.Skill.
 SkillType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackColliderAll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackColliderAll</t>
+  </si>
+  <si>
+    <t>BackAssaultAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1431,10 +1425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76D06FCE-E527-42D7-9C96-67875EC15CB5}">
-  <dimension ref="A1:S67"/>
+  <dimension ref="A1:S66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1448,7 +1442,7 @@
     <col min="9" max="10" width="6.5" style="59" customWidth="1"/>
     <col min="11" max="11" width="9.3984375" style="59" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.8984375" style="59" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.8984375" style="59" customWidth="1"/>
+    <col min="13" max="13" width="16.296875" style="59" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="21" style="61" customWidth="1"/>
     <col min="15" max="15" width="4.69921875" style="73" customWidth="1"/>
     <col min="16" max="16" width="7.69921875" style="60" customWidth="1"/>
@@ -1463,43 +1457,43 @@
         <v>12</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="N1" s="76" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P1" s="9" t="s">
         <v>5</v>
@@ -1515,16 +1509,16 @@
         <v>13</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>2</v>
@@ -1539,16 +1533,16 @@
         <v>1</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="N2" s="77" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="O2" s="10" t="s">
         <v>1</v>
@@ -1561,14 +1555,14 @@
     </row>
     <row r="3" spans="1:19" s="55" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A3" s="34" t="str">
-        <f t="shared" ref="A3:A40" si="0">B3&amp;"_"&amp;C3</f>
+        <f t="shared" ref="A3:A39" si="0">B3&amp;"_"&amp;C3</f>
         <v>Player_Crouch</v>
       </c>
       <c r="B3" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D3" s="35">
         <v>0</v>
@@ -1577,11 +1571,11 @@
         <v>1</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G3" s="35"/>
       <c r="H3" s="34" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I3" s="35" t="s">
         <v>7</v>
@@ -1595,11 +1589,11 @@
       <c r="L3" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="35" t="s">
+      <c r="M3" s="34" t="s">
         <v>10</v>
       </c>
       <c r="N3" s="34" t="str">
-        <f t="shared" ref="N3:N40" si="1">A3</f>
+        <f t="shared" ref="N3:N39" si="1">A3</f>
         <v>Player_Crouch</v>
       </c>
       <c r="O3" s="63" t="s">
@@ -1618,7 +1612,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D4" s="35">
         <v>1</v>
@@ -1627,11 +1621,11 @@
         <v>1</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G4" s="35"/>
       <c r="H4" s="34" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I4" s="35" t="s">
         <v>7</v>
@@ -1645,7 +1639,7 @@
       <c r="L4" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="35" t="s">
+      <c r="M4" s="34" t="s">
         <v>10</v>
       </c>
       <c r="N4" s="34" t="str">
@@ -1677,7 +1671,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="18" t="s">
@@ -1695,7 +1689,7 @@
       <c r="L5" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="M5" s="18" t="s">
         <v>10</v>
       </c>
       <c r="N5" s="18" t="str">
@@ -1727,7 +1721,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G6" s="21"/>
       <c r="H6" s="20" t="s">
@@ -1745,7 +1739,7 @@
       <c r="L6" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="21" t="s">
+      <c r="M6" s="20" t="s">
         <v>10</v>
       </c>
       <c r="N6" s="20" t="str">
@@ -1768,7 +1762,7 @@
         <v>15</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D7" s="13">
         <v>0</v>
@@ -1777,11 +1771,11 @@
         <v>1</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="12" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I7" s="13" t="s">
         <v>7</v>
@@ -1795,7 +1789,7 @@
       <c r="L7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="13" t="s">
+      <c r="M7" s="12" t="s">
         <v>10</v>
       </c>
       <c r="N7" s="12" t="str">
@@ -1818,7 +1812,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D8" s="13">
         <v>0</v>
@@ -1827,11 +1821,11 @@
         <v>1</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="12" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I8" s="13" t="s">
         <v>7</v>
@@ -1845,7 +1839,7 @@
       <c r="L8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="M8" s="13" t="s">
+      <c r="M8" s="12" t="s">
         <v>10</v>
       </c>
       <c r="N8" s="12" t="str">
@@ -1868,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D9" s="17">
         <v>1</v>
@@ -1877,11 +1871,11 @@
         <v>1</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I9" s="17" t="s">
         <v>7</v>
@@ -1895,7 +1889,7 @@
       <c r="L9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="M9" s="17" t="s">
+      <c r="M9" s="16" t="s">
         <v>10</v>
       </c>
       <c r="N9" s="16" t="str">
@@ -1918,7 +1912,7 @@
         <v>14</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D10" s="17">
         <v>1</v>
@@ -1927,11 +1921,11 @@
         <v>1</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="16" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="I10" s="17" t="s">
         <v>7</v>
@@ -1945,7 +1939,7 @@
       <c r="L10" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="M10" s="17" t="s">
+      <c r="M10" s="16" t="s">
         <v>10</v>
       </c>
       <c r="N10" s="16" t="str">
@@ -1977,11 +1971,11 @@
         <v>1</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I11" s="23" t="s">
         <v>7</v>
@@ -1990,12 +1984,12 @@
         <v>7</v>
       </c>
       <c r="K11" s="62" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L11" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="M11" s="62" t="s">
+      <c r="M11" s="25" t="s">
         <v>10</v>
       </c>
       <c r="N11" s="25" t="str">
@@ -2027,11 +2021,11 @@
         <v>1</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G12" s="23"/>
       <c r="H12" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I12" s="23" t="s">
         <v>7</v>
@@ -2040,12 +2034,12 @@
         <v>7</v>
       </c>
       <c r="K12" s="62" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L12" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="M12" s="62" t="s">
+      <c r="M12" s="25" t="s">
         <v>10</v>
       </c>
       <c r="N12" s="25" t="str">
@@ -2077,7 +2071,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G13" s="27"/>
       <c r="H13" s="26" t="s">
@@ -2095,7 +2089,7 @@
       <c r="L13" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="M13" s="30" t="s">
+      <c r="M13" s="29" t="s">
         <v>10</v>
       </c>
       <c r="N13" s="29" t="str">
@@ -2103,7 +2097,7 @@
         <v>Player_Blink</v>
       </c>
       <c r="O13" s="69" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="P13" s="30">
         <v>0</v>
@@ -2118,7 +2112,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D14" s="27">
         <v>1</v>
@@ -2127,11 +2121,11 @@
         <v>1</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G14" s="27"/>
       <c r="H14" s="26" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="I14" s="27" t="s">
         <v>7</v>
@@ -2145,7 +2139,7 @@
       <c r="L14" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="M14" s="30" t="s">
+      <c r="M14" s="29" t="s">
         <v>10</v>
       </c>
       <c r="N14" s="29" t="str">
@@ -2153,7 +2147,7 @@
         <v>Player_BlinkCancel</v>
       </c>
       <c r="O14" s="69" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="P14" s="30">
         <v>0</v>
@@ -2177,7 +2171,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G15" s="32"/>
       <c r="H15" s="31" t="s">
@@ -2190,12 +2184,12 @@
         <v>7</v>
       </c>
       <c r="K15" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L15" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="M15" s="32" t="s">
+      <c r="M15" s="31" t="s">
         <v>10</v>
       </c>
       <c r="N15" s="33" t="str">
@@ -2227,7 +2221,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G16" s="37"/>
       <c r="H16" s="36" t="s">
@@ -2240,12 +2234,12 @@
         <v>7</v>
       </c>
       <c r="K16" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L16" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="M16" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="M16" s="36" t="s">
         <v>10</v>
       </c>
       <c r="N16" s="38" t="str">
@@ -2277,11 +2271,11 @@
         <v>1</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G17" s="23"/>
       <c r="H17" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I17" s="23" t="s">
         <v>7</v>
@@ -2290,12 +2284,12 @@
         <v>7</v>
       </c>
       <c r="K17" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L17" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="M17" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="M17" s="22" t="s">
         <v>10</v>
       </c>
       <c r="N17" s="24" t="str">
@@ -2327,11 +2321,11 @@
         <v>1</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G18" s="27"/>
       <c r="H18" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I18" s="27" t="s">
         <v>7</v>
@@ -2340,12 +2334,12 @@
         <v>7</v>
       </c>
       <c r="K18" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L18" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="M18" s="27" t="s">
+      <c r="M18" s="26" t="s">
         <v>10</v>
       </c>
       <c r="N18" s="28" t="str">
@@ -2377,11 +2371,11 @@
         <v>1</v>
       </c>
       <c r="F19" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G19" s="41"/>
       <c r="H19" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I19" s="41" t="s">
         <v>7</v>
@@ -2390,12 +2384,12 @@
         <v>7</v>
       </c>
       <c r="K19" s="41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L19" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="M19" s="41" t="s">
+      <c r="M19" s="15" t="s">
         <v>10</v>
       </c>
       <c r="N19" s="14" t="str">
@@ -2418,7 +2412,7 @@
         <v>14</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D20" s="32">
         <v>99</v>
@@ -2427,7 +2421,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G20" s="32"/>
       <c r="H20" s="31" t="s">
@@ -2443,9 +2437,9 @@
         <v>11</v>
       </c>
       <c r="L20" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="M20" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="M20" s="31" t="s">
         <v>10</v>
       </c>
       <c r="N20" s="34" t="str">
@@ -2468,7 +2462,7 @@
         <v>14</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D21" s="32">
         <v>99</v>
@@ -2477,7 +2471,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G21" s="32"/>
       <c r="H21" s="31" t="s">
@@ -2493,9 +2487,9 @@
         <v>11</v>
       </c>
       <c r="L21" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="M21" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="M21" s="31" t="s">
         <v>10</v>
       </c>
       <c r="N21" s="34" t="str">
@@ -2527,7 +2521,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G22" s="40"/>
       <c r="H22" s="39" t="s">
@@ -2543,9 +2537,9 @@
         <v>9</v>
       </c>
       <c r="L22" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="M22" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="M22" s="39" t="s">
         <v>10</v>
       </c>
       <c r="N22" s="39" t="str">
@@ -2577,7 +2571,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G23" s="23"/>
       <c r="H23" s="22" t="s">
@@ -2593,9 +2587,9 @@
         <v>11</v>
       </c>
       <c r="L23" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="M23" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="M23" s="22" t="s">
         <v>10</v>
       </c>
       <c r="N23" s="25" t="str">
@@ -2618,7 +2612,7 @@
         <v>15</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D24" s="30">
         <v>999</v>
@@ -2627,33 +2621,33 @@
         <v>1</v>
       </c>
       <c r="F24" s="30" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G24" s="30"/>
       <c r="H24" s="29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I24" s="30" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J24" s="30" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K24" s="30" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L24" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="M24" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="N24" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>Player_Dead</v>
+      </c>
+      <c r="O24" s="69" t="s">
         <v>102</v>
-      </c>
-      <c r="M24" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="N24" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v>Player_Dead</v>
-      </c>
-      <c r="O24" s="69" t="s">
-        <v>104</v>
       </c>
       <c r="P24" s="30">
         <v>0</v>
@@ -2668,7 +2662,7 @@
         <v>14</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D25" s="43">
         <v>0</v>
@@ -2677,7 +2671,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G25" s="43"/>
       <c r="H25" s="42" t="s">
@@ -2690,12 +2684,12 @@
         <v>7</v>
       </c>
       <c r="K25" s="43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L25" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="M25" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="M25" s="42" t="s">
         <v>10</v>
       </c>
       <c r="N25" s="44" t="str">
@@ -2718,7 +2712,7 @@
         <v>14</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D26" s="43">
         <v>1</v>
@@ -2727,7 +2721,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G26" s="43"/>
       <c r="H26" s="42" t="s">
@@ -2740,12 +2734,12 @@
         <v>7</v>
       </c>
       <c r="K26" s="43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L26" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="M26" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="M26" s="42" t="s">
         <v>10</v>
       </c>
       <c r="N26" s="44" t="str">
@@ -2777,7 +2771,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G27" s="41"/>
       <c r="H27" s="15" t="s">
@@ -2790,13 +2784,13 @@
         <v>7</v>
       </c>
       <c r="K27" s="41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L27" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="M27" s="41" t="s">
-        <v>107</v>
+        <v>46</v>
+      </c>
+      <c r="M27" s="15" t="s">
+        <v>155</v>
       </c>
       <c r="N27" s="14" t="str">
         <f t="shared" si="1"/>
@@ -2827,7 +2821,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G28" s="41"/>
       <c r="H28" s="15" t="s">
@@ -2843,10 +2837,10 @@
         <v>6</v>
       </c>
       <c r="L28" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="M28" s="41" t="s">
-        <v>108</v>
+        <v>95</v>
+      </c>
+      <c r="M28" s="15" t="s">
+        <v>155</v>
       </c>
       <c r="N28" s="12" t="str">
         <f t="shared" si="1"/>
@@ -2877,7 +2871,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G29" s="13"/>
       <c r="H29" s="12" t="s">
@@ -2893,10 +2887,10 @@
         <v>6</v>
       </c>
       <c r="L29" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="M29" s="13" t="s">
-        <v>108</v>
+        <v>94</v>
+      </c>
+      <c r="M29" s="15" t="s">
+        <v>156</v>
       </c>
       <c r="N29" s="12" t="str">
         <f t="shared" si="1"/>
@@ -2927,7 +2921,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G30" s="13"/>
       <c r="H30" s="12" t="s">
@@ -2943,10 +2937,10 @@
         <v>6</v>
       </c>
       <c r="L30" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="M30" s="13" t="s">
-        <v>108</v>
+        <v>94</v>
+      </c>
+      <c r="M30" s="15" t="s">
+        <v>156</v>
       </c>
       <c r="N30" s="12" t="str">
         <f t="shared" si="1"/>
@@ -2968,7 +2962,7 @@
         <v>14</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D31" s="41">
         <v>0</v>
@@ -2977,11 +2971,11 @@
         <v>1</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G31" s="13"/>
       <c r="H31" s="15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I31" s="13" t="s">
         <v>7</v>
@@ -2993,10 +2987,10 @@
         <v>6</v>
       </c>
       <c r="L31" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="M31" s="13" t="s">
-        <v>80</v>
+        <v>122</v>
+      </c>
+      <c r="M31" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="N31" s="12" t="str">
         <f t="shared" si="1"/>
@@ -3018,7 +3012,7 @@
         <v>14</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D32" s="41">
         <v>0</v>
@@ -3027,11 +3021,11 @@
         <v>1</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G32" s="13"/>
       <c r="H32" s="15" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I32" s="41" t="s">
         <v>7</v>
@@ -3043,10 +3037,10 @@
         <v>6</v>
       </c>
       <c r="L32" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="M32" s="13" t="s">
-        <v>108</v>
+        <v>96</v>
+      </c>
+      <c r="M32" s="15" t="s">
+        <v>156</v>
       </c>
       <c r="N32" s="12" t="str">
         <f t="shared" si="1"/>
@@ -3068,7 +3062,7 @@
         <v>14</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D33" s="41">
         <v>0</v>
@@ -3077,11 +3071,11 @@
         <v>1</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G33" s="13"/>
       <c r="H33" s="15" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="I33" s="41" t="s">
         <v>7</v>
@@ -3093,10 +3087,10 @@
         <v>6</v>
       </c>
       <c r="L33" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="M33" s="13" t="s">
-        <v>108</v>
+        <v>96</v>
+      </c>
+      <c r="M33" s="15" t="s">
+        <v>156</v>
       </c>
       <c r="N33" s="12" t="str">
         <f t="shared" si="1"/>
@@ -3118,7 +3112,7 @@
         <v>14</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D34" s="41">
         <v>0</v>
@@ -3127,11 +3121,11 @@
         <v>1</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G34" s="13"/>
       <c r="H34" s="15" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I34" s="41" t="s">
         <v>7</v>
@@ -3143,10 +3137,10 @@
         <v>6</v>
       </c>
       <c r="L34" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="M34" s="13" t="s">
-        <v>108</v>
+        <v>96</v>
+      </c>
+      <c r="M34" s="15" t="s">
+        <v>156</v>
       </c>
       <c r="N34" s="12" t="str">
         <f t="shared" si="1"/>
@@ -3168,7 +3162,7 @@
         <v>14</v>
       </c>
       <c r="C35" s="45" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="D35" s="46">
         <v>0</v>
@@ -3177,7 +3171,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G35" s="46"/>
       <c r="H35" s="45" t="s">
@@ -3190,13 +3184,13 @@
         <v>1</v>
       </c>
       <c r="K35" s="46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L35" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="M35" s="46" t="s">
-        <v>107</v>
+        <v>138</v>
+      </c>
+      <c r="M35" s="45" t="s">
+        <v>137</v>
       </c>
       <c r="N35" s="47" t="str">
         <f t="shared" si="1"/>
@@ -3218,7 +3212,7 @@
         <v>14</v>
       </c>
       <c r="C36" s="45" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D36" s="46">
         <v>0</v>
@@ -3227,7 +3221,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G36" s="46"/>
       <c r="H36" s="45" t="s">
@@ -3240,13 +3234,13 @@
         <v>1</v>
       </c>
       <c r="K36" s="46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L36" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="M36" s="46" t="s">
-        <v>107</v>
+        <v>138</v>
+      </c>
+      <c r="M36" s="45" t="s">
+        <v>139</v>
       </c>
       <c r="N36" s="47" t="str">
         <f t="shared" si="1"/>
@@ -3262,13 +3256,13 @@
     <row r="37" spans="1:16" s="58" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A37" s="45" t="str">
         <f t="shared" si="0"/>
-        <v>Player_DiveAssaultAttack</v>
+        <v>Player_AirAssaultAttack</v>
       </c>
       <c r="B37" s="45" t="s">
         <v>14</v>
       </c>
       <c r="C37" s="45" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D37" s="46">
         <v>0</v>
@@ -3277,7 +3271,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G37" s="46"/>
       <c r="H37" s="45" t="s">
@@ -3287,20 +3281,20 @@
         <v>0</v>
       </c>
       <c r="J37" s="46">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K37" s="46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L37" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="M37" s="46" t="s">
-        <v>107</v>
+        <v>138</v>
+      </c>
+      <c r="M37" s="45" t="s">
+        <v>140</v>
       </c>
       <c r="N37" s="47" t="str">
         <f t="shared" si="1"/>
-        <v>Player_DiveAssaultAttack</v>
+        <v>Player_AirAssaultAttack</v>
       </c>
       <c r="O37" s="72" t="s">
         <v>7</v>
@@ -3309,79 +3303,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16" s="58" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A38" s="45" t="str">
-        <f t="shared" si="0"/>
-        <v>Player_AirAssaultAttack</v>
-      </c>
-      <c r="B38" s="45" t="s">
+    <row r="38" spans="1:16" s="49" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="A38" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Player_Guard</v>
+      </c>
+      <c r="B38" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="D38" s="46">
-        <v>0</v>
-      </c>
-      <c r="E38" s="46">
-        <v>1</v>
-      </c>
-      <c r="F38" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="G38" s="46"/>
-      <c r="H38" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="I38" s="46">
-        <v>0</v>
-      </c>
-      <c r="J38" s="46">
-        <v>5</v>
-      </c>
-      <c r="K38" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="L38" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="M38" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="N38" s="47" t="str">
-        <f t="shared" si="1"/>
-        <v>Player_AirAssaultAttack</v>
-      </c>
-      <c r="O38" s="72" t="s">
-        <v>7</v>
-      </c>
-      <c r="P38" s="75">
+      <c r="C38" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38" s="41">
+        <v>0</v>
+      </c>
+      <c r="E38" s="41">
+        <v>1</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="G38" s="13"/>
+      <c r="H38" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="I38" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="J38" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="K38" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="L38" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="M38" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="N38" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Player_Guard</v>
+      </c>
+      <c r="O38" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="P38" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:16" s="49" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A39" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>Player_Guard</v>
+        <v>Player_GuardRelease</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D39" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" s="41">
         <v>1</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G39" s="13"/>
       <c r="H39" s="15" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="I39" s="41" t="s">
         <v>7</v>
@@ -3390,17 +3384,17 @@
         <v>7</v>
       </c>
       <c r="K39" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L39" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="M39" s="41" t="s">
-        <v>80</v>
+        <v>74</v>
+      </c>
+      <c r="M39" s="15" t="s">
+        <v>79</v>
       </c>
       <c r="N39" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>Player_Guard</v>
+        <v>Player_GuardRelease</v>
       </c>
       <c r="O39" s="66" t="s">
         <v>7</v>
@@ -3409,55 +3403,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16" s="49" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A40" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>Player_GuardRelease</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="D40" s="41">
-        <v>1</v>
-      </c>
-      <c r="E40" s="41">
-        <v>1</v>
-      </c>
-      <c r="F40" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="G40" s="13"/>
-      <c r="H40" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="I40" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="J40" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="K40" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="L40" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="M40" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="N40" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>Player_GuardRelease</v>
-      </c>
-      <c r="O40" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="P40" s="13">
-        <v>0</v>
-      </c>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="K41" s="60"/>
+      <c r="L41" s="60"/>
+      <c r="N41" s="59"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.4">
       <c r="K42" s="60"/>
@@ -3465,8 +3414,6 @@
       <c r="N42" s="59"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="K43" s="60"/>
-      <c r="L43" s="60"/>
       <c r="N43" s="59"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.4">
@@ -3475,8 +3422,8 @@
     <row r="45" spans="1:16" x14ac:dyDescent="0.4">
       <c r="N45" s="59"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="N46" s="59"/>
+    <row r="57" spans="19:19" x14ac:dyDescent="0.4">
+      <c r="S57" s="1"/>
     </row>
     <row r="58" spans="19:19" x14ac:dyDescent="0.4">
       <c r="S58" s="1"/>
@@ -3505,12 +3452,9 @@
     <row r="66" spans="19:19" x14ac:dyDescent="0.4">
       <c r="S66" s="1"/>
     </row>
-    <row r="67" spans="19:19" x14ac:dyDescent="0.4">
-      <c r="S67" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A52:A53">
+  <conditionalFormatting sqref="A51:A52">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
